--- a/analyses/uwpr-dec2018/unipept-lca/378-peaks80-db-nomods-lca.xlsx
+++ b/analyses/uwpr-dec2018/unipept-lca/378-peaks80-db-nomods-lca.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/uwpr-dec2018/unipept-lca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{69041648-B0EF-B24C-8B57-AD8E004F4624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E384FF8-E22E-DF43-B12D-0CBB2DEA0A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="378-peaks80-db-nomods-lca" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="work" sheetId="2" r:id="rId2"/>
+    <sheet name="fungi peps" sheetId="3" r:id="rId3"/>
+    <sheet name="cyano peps" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="998">
   <si>
     <t>peptide</t>
   </si>
@@ -3020,7 +3022,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3854,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8576,11 +8578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8691,6 +8693,4731 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" t="s">
+        <v>944</v>
+      </c>
+      <c r="S3" t="s">
+        <v>945</v>
+      </c>
+      <c r="W3" t="s">
+        <v>946</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>943</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N4" t="s">
+        <v>294</v>
+      </c>
+      <c r="O4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" t="s">
+        <v>296</v>
+      </c>
+      <c r="R4" t="s">
+        <v>297</v>
+      </c>
+      <c r="S4" t="s">
+        <v>298</v>
+      </c>
+      <c r="W4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" t="s">
+        <v>441</v>
+      </c>
+      <c r="J6" t="s">
+        <v>442</v>
+      </c>
+      <c r="K6" t="s">
+        <v>443</v>
+      </c>
+      <c r="N6" t="s">
+        <v>444</v>
+      </c>
+      <c r="S6" t="s">
+        <v>445</v>
+      </c>
+      <c r="W6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" t="s">
+        <v>441</v>
+      </c>
+      <c r="J7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K7" t="s">
+        <v>443</v>
+      </c>
+      <c r="N7" t="s">
+        <v>618</v>
+      </c>
+      <c r="S7" t="s">
+        <v>619</v>
+      </c>
+      <c r="W7" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>621</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>903</v>
+      </c>
+      <c r="B8" t="s">
+        <v>904</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>905</v>
+      </c>
+      <c r="J8" t="s">
+        <v>906</v>
+      </c>
+      <c r="N8" t="s">
+        <v>907</v>
+      </c>
+      <c r="S8" t="s">
+        <v>908</v>
+      </c>
+      <c r="W8" t="s">
+        <v>909</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>967</v>
+      </c>
+      <c r="B9" t="s">
+        <v>968</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>968</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>969</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>970</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>981</v>
+      </c>
+      <c r="B10" t="s">
+        <v>982</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>968</v>
+      </c>
+      <c r="J10" t="s">
+        <v>983</v>
+      </c>
+      <c r="N10" t="s">
+        <v>984</v>
+      </c>
+      <c r="S10" t="s">
+        <v>985</v>
+      </c>
+      <c r="W10" t="s">
+        <v>986</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>987</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>564</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" t="s">
+        <v>193</v>
+      </c>
+      <c r="N14" t="s">
+        <v>194</v>
+      </c>
+      <c r="S14" t="s">
+        <v>195</v>
+      </c>
+      <c r="W14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>691</v>
+      </c>
+      <c r="B15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>693</v>
+      </c>
+      <c r="J15" t="s">
+        <v>694</v>
+      </c>
+      <c r="N15" t="s">
+        <v>695</v>
+      </c>
+      <c r="S15" t="s">
+        <v>696</v>
+      </c>
+      <c r="W15" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>698</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>699</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" t="s">
+        <v>234</v>
+      </c>
+      <c r="J17" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" t="s">
+        <v>312</v>
+      </c>
+      <c r="P17" t="s">
+        <v>313</v>
+      </c>
+      <c r="S17" t="s">
+        <v>314</v>
+      </c>
+      <c r="W17" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>734</v>
+      </c>
+      <c r="B18" t="s">
+        <v>735</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H18" t="s">
+        <v>233</v>
+      </c>
+      <c r="I18" t="s">
+        <v>736</v>
+      </c>
+      <c r="J18" t="s">
+        <v>737</v>
+      </c>
+      <c r="K18" t="s">
+        <v>738</v>
+      </c>
+      <c r="L18" t="s">
+        <v>739</v>
+      </c>
+      <c r="M18" t="s">
+        <v>740</v>
+      </c>
+      <c r="N18" t="s">
+        <v>741</v>
+      </c>
+      <c r="O18" t="s">
+        <v>742</v>
+      </c>
+      <c r="S18" t="s">
+        <v>743</v>
+      </c>
+      <c r="T18" t="s">
+        <v>744</v>
+      </c>
+      <c r="W18" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>735</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>842</v>
+      </c>
+      <c r="B19" t="s">
+        <v>843</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H19" t="s">
+        <v>233</v>
+      </c>
+      <c r="I19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s">
+        <v>312</v>
+      </c>
+      <c r="N19" t="s">
+        <v>844</v>
+      </c>
+      <c r="O19" t="s">
+        <v>845</v>
+      </c>
+      <c r="S19" t="s">
+        <v>846</v>
+      </c>
+      <c r="W19" t="s">
+        <v>847</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>843</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>848</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>887</v>
+      </c>
+      <c r="B20" t="s">
+        <v>888</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" t="s">
+        <v>233</v>
+      </c>
+      <c r="I20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J20" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" t="s">
+        <v>889</v>
+      </c>
+      <c r="N20" t="s">
+        <v>890</v>
+      </c>
+      <c r="O20" t="s">
+        <v>891</v>
+      </c>
+      <c r="S20" t="s">
+        <v>892</v>
+      </c>
+      <c r="W20" t="s">
+        <v>893</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>888</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>574</v>
+      </c>
+      <c r="B22" t="s">
+        <v>575</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>576</v>
+      </c>
+      <c r="N22" t="s">
+        <v>577</v>
+      </c>
+      <c r="S22" t="s">
+        <v>578</v>
+      </c>
+      <c r="W22" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>347</v>
+      </c>
+      <c r="J23" t="s">
+        <v>348</v>
+      </c>
+      <c r="N23" t="s">
+        <v>349</v>
+      </c>
+      <c r="S23" t="s">
+        <v>350</v>
+      </c>
+      <c r="W23" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>755</v>
+      </c>
+      <c r="B24" t="s">
+        <v>756</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>347</v>
+      </c>
+      <c r="J24" t="s">
+        <v>757</v>
+      </c>
+      <c r="N24" t="s">
+        <v>758</v>
+      </c>
+      <c r="S24" t="s">
+        <v>759</v>
+      </c>
+      <c r="W24" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>756</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>254</v>
+      </c>
+      <c r="J25" t="s">
+        <v>255</v>
+      </c>
+      <c r="K25" t="s">
+        <v>256</v>
+      </c>
+      <c r="R25" t="s">
+        <v>257</v>
+      </c>
+      <c r="S25" t="s">
+        <v>258</v>
+      </c>
+      <c r="W25" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>302</v>
+      </c>
+      <c r="W26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N29" t="s">
+        <v>85</v>
+      </c>
+      <c r="S29" t="s">
+        <v>179</v>
+      </c>
+      <c r="W29" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+      <c r="N30" t="s">
+        <v>85</v>
+      </c>
+      <c r="S30" t="s">
+        <v>86</v>
+      </c>
+      <c r="W30" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S31" t="s">
+        <v>179</v>
+      </c>
+      <c r="W31" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>492</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" t="s">
+        <v>42</v>
+      </c>
+      <c r="W32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>570</v>
+      </c>
+      <c r="B33" t="s">
+        <v>571</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N33" t="s">
+        <v>572</v>
+      </c>
+      <c r="S33" t="s">
+        <v>573</v>
+      </c>
+      <c r="W33" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>605</v>
+      </c>
+      <c r="B34" t="s">
+        <v>606</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>607</v>
+      </c>
+      <c r="N34" t="s">
+        <v>608</v>
+      </c>
+      <c r="S34" t="s">
+        <v>609</v>
+      </c>
+      <c r="W34" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>678</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>714</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>716</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>717</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>729</v>
+      </c>
+      <c r="B38" t="s">
+        <v>730</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="W38" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>730</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>732</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>621</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>770</v>
+      </c>
+      <c r="B39" t="s">
+        <v>771</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" t="s">
+        <v>772</v>
+      </c>
+      <c r="S39" t="s">
+        <v>773</v>
+      </c>
+      <c r="W39" t="s">
+        <v>774</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>830</v>
+      </c>
+      <c r="B40" t="s">
+        <v>831</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s">
+        <v>832</v>
+      </c>
+      <c r="N40" t="s">
+        <v>833</v>
+      </c>
+      <c r="W40" t="s">
+        <v>831</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>834</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>838</v>
+      </c>
+      <c r="B41" t="s">
+        <v>839</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" t="s">
+        <v>840</v>
+      </c>
+      <c r="N41" t="s">
+        <v>839</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>894</v>
+      </c>
+      <c r="B42" t="s">
+        <v>895</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s">
+        <v>607</v>
+      </c>
+      <c r="N42" t="s">
+        <v>896</v>
+      </c>
+      <c r="S42" t="s">
+        <v>897</v>
+      </c>
+      <c r="W42" t="s">
+        <v>895</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>924</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" t="s">
+        <v>41</v>
+      </c>
+      <c r="S43" t="s">
+        <v>42</v>
+      </c>
+      <c r="W43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>925</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>930</v>
+      </c>
+      <c r="B44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" t="s">
+        <v>84</v>
+      </c>
+      <c r="N44" t="s">
+        <v>85</v>
+      </c>
+      <c r="S44" t="s">
+        <v>86</v>
+      </c>
+      <c r="W44" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>947</v>
+      </c>
+      <c r="B45" t="s">
+        <v>948</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s">
+        <v>607</v>
+      </c>
+      <c r="N45" t="s">
+        <v>949</v>
+      </c>
+      <c r="S45" t="s">
+        <v>950</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>948</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>962</v>
+      </c>
+      <c r="B46" t="s">
+        <v>963</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" t="s">
+        <v>607</v>
+      </c>
+      <c r="N46" t="s">
+        <v>964</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>963</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>785</v>
+      </c>
+      <c r="B48" t="s">
+        <v>786</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" t="s">
+        <v>787</v>
+      </c>
+      <c r="K48" t="s">
+        <v>788</v>
+      </c>
+      <c r="N48" t="s">
+        <v>789</v>
+      </c>
+      <c r="S48" t="s">
+        <v>790</v>
+      </c>
+      <c r="T48" t="s">
+        <v>791</v>
+      </c>
+      <c r="U48" t="s">
+        <v>792</v>
+      </c>
+      <c r="V48" t="s">
+        <v>793</v>
+      </c>
+      <c r="W48" t="s">
+        <v>794</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>795</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>786</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>796</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>629</v>
+      </c>
+      <c r="B49" t="s">
+        <v>630</v>
+      </c>
+      <c r="C49" t="s">
+        <v>394</v>
+      </c>
+      <c r="G49" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>631</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>993</v>
+      </c>
+      <c r="B50" t="s">
+        <v>994</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>995</v>
+      </c>
+      <c r="J50" t="s">
+        <v>996</v>
+      </c>
+      <c r="N50" t="s">
+        <v>997</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>994</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>369</v>
+      </c>
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>628</v>
+      </c>
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>305</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>322</v>
+      </c>
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>324</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>327</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>337</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>343</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>356</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>359</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>361</v>
+      </c>
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>364</v>
+      </c>
+      <c r="B106" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>373</v>
+      </c>
+      <c r="B107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>375</v>
+      </c>
+      <c r="B108" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>380</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>384</v>
+      </c>
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>389</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>391</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>395</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>398</v>
+      </c>
+      <c r="B114" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>403</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>408</v>
+      </c>
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>413</v>
+      </c>
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>416</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>418</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>425</v>
+      </c>
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH119" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>435</v>
+      </c>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF121" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>447</v>
+      </c>
+      <c r="B122" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>450</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>452</v>
+      </c>
+      <c r="B123" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH123" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>457</v>
+      </c>
+      <c r="B124" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>458</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>459</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>460</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>462</v>
+      </c>
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>467</v>
+      </c>
+      <c r="B126" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>469</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>471</v>
+      </c>
+      <c r="B127" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF127" t="s">
+        <v>472</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>473</v>
+      </c>
+      <c r="AH127" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>475</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>480</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF129" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH129" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>484</v>
+      </c>
+      <c r="B130" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>485</v>
+      </c>
+      <c r="AH130" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>487</v>
+      </c>
+      <c r="B131" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF131" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>490</v>
+      </c>
+      <c r="AH131" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>493</v>
+      </c>
+      <c r="B132" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>495</v>
+      </c>
+      <c r="AG132" t="s">
+        <v>496</v>
+      </c>
+      <c r="AH132" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>498</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>499</v>
+      </c>
+      <c r="AF133" t="s">
+        <v>500</v>
+      </c>
+      <c r="AG133" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH133" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>503</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF134" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>506</v>
+      </c>
+      <c r="AH134" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>508</v>
+      </c>
+      <c r="B135" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF135" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG135" t="s">
+        <v>511</v>
+      </c>
+      <c r="AH135" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>513</v>
+      </c>
+      <c r="B136" t="s">
+        <v>52</v>
+      </c>
+      <c r="C136" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>514</v>
+      </c>
+      <c r="B137" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE137" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF137" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH137" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>518</v>
+      </c>
+      <c r="B138" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE138" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF138" t="s">
+        <v>520</v>
+      </c>
+      <c r="AG138" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH138" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>523</v>
+      </c>
+      <c r="B139" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE139" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF139" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG139" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH139" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>528</v>
+      </c>
+      <c r="B140" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH140" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>533</v>
+      </c>
+      <c r="B141" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>536</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>538</v>
+      </c>
+      <c r="B142" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE142" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF142" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG142" t="s">
+        <v>541</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>543</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF143" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH143" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>548</v>
+      </c>
+      <c r="B144" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>549</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>550</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>552</v>
+      </c>
+      <c r="B145" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF145" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH145" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>557</v>
+      </c>
+      <c r="B146" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE146" t="s">
+        <v>558</v>
+      </c>
+      <c r="AF146" t="s">
+        <v>559</v>
+      </c>
+      <c r="AG146" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH146" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>562</v>
+      </c>
+      <c r="B147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>566</v>
+      </c>
+      <c r="B148" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF148" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG148" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH148" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>582</v>
+      </c>
+      <c r="B149" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>584</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>585</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>587</v>
+      </c>
+      <c r="B150" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF150" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH150" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>590</v>
+      </c>
+      <c r="B151" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>591</v>
+      </c>
+      <c r="AH151" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="152" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>593</v>
+      </c>
+      <c r="B152" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>595</v>
+      </c>
+      <c r="B153" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>598</v>
+      </c>
+      <c r="AH153" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="154" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>600</v>
+      </c>
+      <c r="B154" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE154" t="s">
+        <v>601</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>603</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="155" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>610</v>
+      </c>
+      <c r="B155" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE155" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF155" t="s">
+        <v>612</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH155" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>615</v>
+      </c>
+      <c r="B156" t="s">
+        <v>52</v>
+      </c>
+      <c r="C156" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>623</v>
+      </c>
+      <c r="B157" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG157" t="s">
+        <v>626</v>
+      </c>
+      <c r="AH157" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="158" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>633</v>
+      </c>
+      <c r="B158" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>634</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="159" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>636</v>
+      </c>
+      <c r="B159" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>637</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>638</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>639</v>
+      </c>
+      <c r="AH159" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="160" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>641</v>
+      </c>
+      <c r="B160" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>642</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>643</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>644</v>
+      </c>
+      <c r="AH160" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>646</v>
+      </c>
+      <c r="B161" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>647</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>650</v>
+      </c>
+      <c r="B162" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>652</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>653</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="163" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>655</v>
+      </c>
+      <c r="B163" t="s">
+        <v>656</v>
+      </c>
+      <c r="C163" t="s">
+        <v>657</v>
+      </c>
+      <c r="N163" t="s">
+        <v>658</v>
+      </c>
+      <c r="S163" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="164" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>659</v>
+      </c>
+      <c r="B164" t="s">
+        <v>52</v>
+      </c>
+      <c r="C164" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>660</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>662</v>
+      </c>
+      <c r="B165" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>664</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>665</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="166" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>667</v>
+      </c>
+      <c r="B166" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>668</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>669</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>670</v>
+      </c>
+      <c r="AH166" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>672</v>
+      </c>
+      <c r="B167" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>673</v>
+      </c>
+      <c r="B168" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>680</v>
+      </c>
+      <c r="B169" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>681</v>
+      </c>
+      <c r="B170" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>682</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>683</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>686</v>
+      </c>
+      <c r="B171" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>688</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>689</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>701</v>
+      </c>
+      <c r="B172" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>702</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>704</v>
+      </c>
+      <c r="B173" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>705</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>706</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>707</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="174" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>709</v>
+      </c>
+      <c r="B174" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>710</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>711</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>712</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>715</v>
+      </c>
+      <c r="B175" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>718</v>
+      </c>
+      <c r="B176" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>719</v>
+      </c>
+      <c r="AH176" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="177" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>721</v>
+      </c>
+      <c r="B177" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>723</v>
+      </c>
+      <c r="AH177" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="178" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>725</v>
+      </c>
+      <c r="B178" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>726</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>727</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="179" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>746</v>
+      </c>
+      <c r="B179" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>747</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>748</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="180" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>750</v>
+      </c>
+      <c r="B180" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>751</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>752</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>753</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="181" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>762</v>
+      </c>
+      <c r="B181" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>763</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="182" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>765</v>
+      </c>
+      <c r="B182" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>766</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>767</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>768</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="183" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>775</v>
+      </c>
+      <c r="B183" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>777</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>778</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="184" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>780</v>
+      </c>
+      <c r="B184" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>781</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>782</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>783</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="185" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>798</v>
+      </c>
+      <c r="B185" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>799</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>800</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>801</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="186" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>803</v>
+      </c>
+      <c r="B186" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>804</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>805</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>806</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="187" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>808</v>
+      </c>
+      <c r="B187" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>809</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>810</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>811</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="188" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>813</v>
+      </c>
+      <c r="B188" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>814</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>815</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>816</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="189" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>818</v>
+      </c>
+      <c r="B189" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>819</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>820</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>821</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="190" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>823</v>
+      </c>
+      <c r="B190" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>824</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>825</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="191" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>827</v>
+      </c>
+      <c r="B191" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>828</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="192" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>836</v>
+      </c>
+      <c r="B192" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="193" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>850</v>
+      </c>
+      <c r="B193" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>851</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="194" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>853</v>
+      </c>
+      <c r="B194" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>854</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>855</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>856</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="195" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>858</v>
+      </c>
+      <c r="B195" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>859</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>860</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>861</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="196" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>863</v>
+      </c>
+      <c r="B196" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>864</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>865</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>866</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="197" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>868</v>
+      </c>
+      <c r="B197" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>869</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>870</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>871</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="198" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>873</v>
+      </c>
+      <c r="B198" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>874</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>875</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>876</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="199" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>878</v>
+      </c>
+      <c r="B199" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>879</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>880</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="200" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>882</v>
+      </c>
+      <c r="B200" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE200" t="s">
+        <v>883</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>884</v>
+      </c>
+      <c r="AG200" t="s">
+        <v>885</v>
+      </c>
+      <c r="AH200" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="201" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>899</v>
+      </c>
+      <c r="B201" t="s">
+        <v>52</v>
+      </c>
+      <c r="C201" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>900</v>
+      </c>
+      <c r="AG201" t="s">
+        <v>901</v>
+      </c>
+      <c r="AH201" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="202" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>910</v>
+      </c>
+      <c r="B202" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>911</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>912</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>913</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="203" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>915</v>
+      </c>
+      <c r="B203" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>916</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>917</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="204" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>919</v>
+      </c>
+      <c r="B204" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>920</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>921</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>922</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="205" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>927</v>
+      </c>
+      <c r="B205" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>928</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="206" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>932</v>
+      </c>
+      <c r="B206" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>933</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>934</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>935</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="207" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>937</v>
+      </c>
+      <c r="B207" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>938</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>939</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>940</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="208" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>952</v>
+      </c>
+      <c r="B208" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>953</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>954</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>955</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="209" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>957</v>
+      </c>
+      <c r="B209" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>958</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>959</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>960</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="210" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>966</v>
+      </c>
+      <c r="B210" t="s">
+        <v>52</v>
+      </c>
+      <c r="C210" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="211" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>972</v>
+      </c>
+      <c r="B211" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>973</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>974</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>975</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="212" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>977</v>
+      </c>
+      <c r="B212" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>978</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>979</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="213" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>988</v>
+      </c>
+      <c r="B213" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>989</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>990</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>991</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>992</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH213">
+    <sortCondition ref="G2:G213"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF50E9-D28B-AD40-940C-4038410B6240}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>352</v>
       </c>
       <c r="B2" t="s">
@@ -8797,4505 +13524,158 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" t="s">
-        <v>232</v>
-      </c>
-      <c r="H5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G6" t="s">
-        <v>254</v>
-      </c>
-      <c r="J6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K6" t="s">
-        <v>256</v>
-      </c>
-      <c r="R6" t="s">
-        <v>257</v>
-      </c>
-      <c r="S6" t="s">
-        <v>258</v>
-      </c>
-      <c r="W6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" t="s">
-        <v>290</v>
-      </c>
-      <c r="J7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L7" t="s">
-        <v>293</v>
-      </c>
-      <c r="N7" t="s">
-        <v>294</v>
-      </c>
-      <c r="O7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P7" t="s">
-        <v>296</v>
-      </c>
-      <c r="R7" t="s">
-        <v>297</v>
-      </c>
-      <c r="S7" t="s">
-        <v>298</v>
-      </c>
-      <c r="W7" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" t="s">
-        <v>302</v>
-      </c>
-      <c r="W8" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I9" t="s">
-        <v>234</v>
-      </c>
-      <c r="J9" t="s">
-        <v>230</v>
-      </c>
-      <c r="M9" t="s">
-        <v>312</v>
-      </c>
-      <c r="P9" t="s">
-        <v>313</v>
-      </c>
-      <c r="S9" t="s">
-        <v>314</v>
-      </c>
-      <c r="W9" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>311</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>316</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>628</v>
-      </c>
-      <c r="B11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>734</v>
-      </c>
-      <c r="B12" t="s">
-        <v>735</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" t="s">
-        <v>233</v>
-      </c>
-      <c r="I12" t="s">
-        <v>736</v>
-      </c>
-      <c r="J12" t="s">
-        <v>737</v>
-      </c>
-      <c r="K12" t="s">
-        <v>738</v>
-      </c>
-      <c r="L12" t="s">
-        <v>739</v>
-      </c>
-      <c r="M12" t="s">
-        <v>740</v>
-      </c>
-      <c r="N12" t="s">
-        <v>741</v>
-      </c>
-      <c r="O12" t="s">
-        <v>742</v>
-      </c>
-      <c r="S12" t="s">
-        <v>743</v>
-      </c>
-      <c r="T12" t="s">
-        <v>744</v>
-      </c>
-      <c r="W12" t="s">
-        <v>745</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>735</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>842</v>
-      </c>
-      <c r="B13" t="s">
-        <v>843</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" t="s">
-        <v>233</v>
-      </c>
-      <c r="I13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J13" t="s">
-        <v>230</v>
-      </c>
-      <c r="M13" t="s">
-        <v>312</v>
-      </c>
-      <c r="N13" t="s">
-        <v>844</v>
-      </c>
-      <c r="O13" t="s">
-        <v>845</v>
-      </c>
-      <c r="S13" t="s">
-        <v>846</v>
-      </c>
-      <c r="W13" t="s">
-        <v>847</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>843</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>848</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>887</v>
-      </c>
-      <c r="B14" t="s">
-        <v>888</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" t="s">
-        <v>233</v>
-      </c>
-      <c r="I14" t="s">
-        <v>234</v>
-      </c>
-      <c r="J14" t="s">
-        <v>230</v>
-      </c>
-      <c r="M14" t="s">
-        <v>889</v>
-      </c>
-      <c r="N14" t="s">
-        <v>890</v>
-      </c>
-      <c r="O14" t="s">
-        <v>891</v>
-      </c>
-      <c r="S14" t="s">
-        <v>892</v>
-      </c>
-      <c r="W14" t="s">
-        <v>893</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>888</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>691</v>
-      </c>
-      <c r="B16" t="s">
-        <v>692</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" t="s">
-        <v>693</v>
-      </c>
-      <c r="J16" t="s">
-        <v>694</v>
-      </c>
-      <c r="N16" t="s">
-        <v>695</v>
-      </c>
-      <c r="S16" t="s">
-        <v>696</v>
-      </c>
-      <c r="W16" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>692</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>698</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>699</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>785</v>
-      </c>
-      <c r="B17" t="s">
-        <v>786</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" t="s">
-        <v>787</v>
-      </c>
-      <c r="K17" t="s">
-        <v>788</v>
-      </c>
-      <c r="N17" t="s">
-        <v>789</v>
-      </c>
-      <c r="S17" t="s">
-        <v>790</v>
-      </c>
-      <c r="T17" t="s">
-        <v>791</v>
-      </c>
-      <c r="U17" t="s">
-        <v>792</v>
-      </c>
-      <c r="V17" t="s">
-        <v>793</v>
-      </c>
-      <c r="W17" t="s">
-        <v>794</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>795</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>786</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>796</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9C116A-7559-5046-B60D-01E4A68DE295}">
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" t="s">
-        <v>41</v>
-      </c>
-      <c r="S18" t="s">
-        <v>42</v>
-      </c>
-      <c r="W18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="W20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" t="s">
-        <v>84</v>
-      </c>
-      <c r="N27" t="s">
-        <v>85</v>
-      </c>
-      <c r="S27" t="s">
-        <v>86</v>
-      </c>
-      <c r="W27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" t="s">
-        <v>84</v>
-      </c>
-      <c r="N47" t="s">
-        <v>85</v>
-      </c>
-      <c r="S47" t="s">
-        <v>179</v>
-      </c>
-      <c r="W47" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>192</v>
-      </c>
-      <c r="J50" t="s">
-        <v>193</v>
-      </c>
-      <c r="N50" t="s">
-        <v>194</v>
-      </c>
-      <c r="S50" t="s">
-        <v>195</v>
-      </c>
-      <c r="W50" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>200</v>
-      </c>
-      <c r="B52" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>205</v>
-      </c>
-      <c r="B53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" t="s">
-        <v>84</v>
-      </c>
-      <c r="N54" t="s">
-        <v>85</v>
-      </c>
-      <c r="S54" t="s">
-        <v>86</v>
-      </c>
-      <c r="W54" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>220</v>
-      </c>
-      <c r="B57" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>224</v>
-      </c>
-      <c r="B58" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>226</v>
-      </c>
-      <c r="J58" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>244</v>
-      </c>
-      <c r="B60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>246</v>
-      </c>
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>247</v>
-      </c>
-      <c r="B62" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>263</v>
-      </c>
-      <c r="B63" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>266</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>268</v>
-      </c>
-      <c r="B64" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>273</v>
-      </c>
-      <c r="B65" t="s">
-        <v>274</v>
-      </c>
-      <c r="C65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>276</v>
-      </c>
-      <c r="B66" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>281</v>
-      </c>
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>282</v>
-      </c>
-      <c r="B68" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>305</v>
-      </c>
-      <c r="B69" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>308</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>318</v>
-      </c>
-      <c r="B70" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>320</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>322</v>
-      </c>
-      <c r="B71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>327</v>
-      </c>
-      <c r="B72" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>329</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>330</v>
-      </c>
-      <c r="AH72" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>332</v>
-      </c>
-      <c r="B73" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>333</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>337</v>
-      </c>
-      <c r="B74" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>340</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>342</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>343</v>
-      </c>
-      <c r="B76" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>345</v>
-      </c>
-      <c r="B77" t="s">
-        <v>346</v>
-      </c>
-      <c r="C77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>347</v>
-      </c>
-      <c r="J77" t="s">
-        <v>348</v>
-      </c>
-      <c r="N77" t="s">
-        <v>349</v>
-      </c>
-      <c r="S77" t="s">
-        <v>350</v>
-      </c>
-      <c r="W77" t="s">
-        <v>346</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>356</v>
-      </c>
-      <c r="B78" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH78" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>361</v>
-      </c>
-      <c r="B79" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH79" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>364</v>
-      </c>
-      <c r="B80" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>365</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>367</v>
-      </c>
-      <c r="AH80" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>373</v>
-      </c>
-      <c r="B81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG81" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>375</v>
-      </c>
-      <c r="B82" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF82" t="s">
-        <v>377</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH82" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>380</v>
-      </c>
-      <c r="B83" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF83" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG83" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>384</v>
-      </c>
-      <c r="B84" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF84" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>387</v>
-      </c>
-      <c r="AH84" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>389</v>
-      </c>
-      <c r="B85" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF85" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH85" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>391</v>
-      </c>
-      <c r="B86" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>392</v>
-      </c>
-      <c r="B87" t="s">
-        <v>393</v>
-      </c>
-      <c r="C87" t="s">
-        <v>394</v>
-      </c>
-      <c r="G87" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>395</v>
-      </c>
-      <c r="B88" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>396</v>
-      </c>
-      <c r="AH88" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>398</v>
-      </c>
-      <c r="B89" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>400</v>
-      </c>
-      <c r="AG89" t="s">
-        <v>401</v>
-      </c>
-      <c r="AH89" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>403</v>
-      </c>
-      <c r="B90" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>404</v>
-      </c>
-      <c r="AF90" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG90" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH90" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>408</v>
-      </c>
-      <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>409</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>410</v>
-      </c>
-      <c r="AG91" t="s">
-        <v>411</v>
-      </c>
-      <c r="AH91" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>413</v>
-      </c>
-      <c r="B92" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>414</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>416</v>
-      </c>
-      <c r="AH92" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>418</v>
-      </c>
-      <c r="B93" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>419</v>
-      </c>
-      <c r="AF93" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG93" t="s">
-        <v>421</v>
-      </c>
-      <c r="AH93" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>423</v>
-      </c>
-      <c r="B94" t="s">
-        <v>424</v>
-      </c>
-      <c r="C94" t="s">
-        <v>36</v>
-      </c>
-      <c r="G94" t="s">
-        <v>37</v>
-      </c>
-      <c r="J94" t="s">
-        <v>84</v>
-      </c>
-      <c r="N94" t="s">
-        <v>85</v>
-      </c>
-      <c r="S94" t="s">
-        <v>179</v>
-      </c>
-      <c r="W94" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>425</v>
-      </c>
-      <c r="B95" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>428</v>
-      </c>
-      <c r="AH95" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>430</v>
-      </c>
-      <c r="B96" t="s">
-        <v>36</v>
-      </c>
-      <c r="C96" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG96" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH96" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>435</v>
-      </c>
-      <c r="B97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF97" t="s">
-        <v>436</v>
-      </c>
-      <c r="AG97" t="s">
-        <v>437</v>
-      </c>
-      <c r="AH97" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>447</v>
-      </c>
-      <c r="B98" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>448</v>
-      </c>
-      <c r="AF98" t="s">
-        <v>449</v>
-      </c>
-      <c r="AG98" t="s">
-        <v>450</v>
-      </c>
-      <c r="AH98" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>452</v>
-      </c>
-      <c r="B99" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF99" t="s">
-        <v>454</v>
-      </c>
-      <c r="AG99" t="s">
-        <v>455</v>
-      </c>
-      <c r="AH99" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>457</v>
-      </c>
-      <c r="B100" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF100" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG100" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH100" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>462</v>
-      </c>
-      <c r="B101" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF101" t="s">
-        <v>464</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>465</v>
-      </c>
-      <c r="AH101" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>467</v>
-      </c>
-      <c r="B102" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF102" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH102" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>471</v>
-      </c>
-      <c r="B103" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF103" t="s">
-        <v>472</v>
-      </c>
-      <c r="AG103" t="s">
-        <v>473</v>
-      </c>
-      <c r="AH103" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>475</v>
-      </c>
-      <c r="B104" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF104" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG104" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH104" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>480</v>
-      </c>
-      <c r="B105" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF105" t="s">
-        <v>481</v>
-      </c>
-      <c r="AG105" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH105" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>484</v>
-      </c>
-      <c r="B106" t="s">
-        <v>52</v>
-      </c>
-      <c r="C106" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF106" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG106" t="s">
-        <v>485</v>
-      </c>
-      <c r="AH106" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>487</v>
-      </c>
-      <c r="B107" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>488</v>
-      </c>
-      <c r="AF107" t="s">
-        <v>489</v>
-      </c>
-      <c r="AG107" t="s">
-        <v>490</v>
-      </c>
-      <c r="AH107" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>492</v>
-      </c>
-      <c r="B108" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
-      <c r="H108" t="s">
-        <v>38</v>
-      </c>
-      <c r="J108" t="s">
-        <v>39</v>
-      </c>
-      <c r="N108" t="s">
-        <v>40</v>
-      </c>
-      <c r="O108" t="s">
-        <v>41</v>
-      </c>
-      <c r="S108" t="s">
-        <v>42</v>
-      </c>
-      <c r="W108" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>493</v>
-      </c>
-      <c r="B109" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE109" t="s">
-        <v>494</v>
-      </c>
-      <c r="AF109" t="s">
-        <v>495</v>
-      </c>
-      <c r="AG109" t="s">
-        <v>496</v>
-      </c>
-      <c r="AH109" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>498</v>
-      </c>
-      <c r="B110" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE110" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF110" t="s">
-        <v>500</v>
-      </c>
-      <c r="AG110" t="s">
-        <v>501</v>
-      </c>
-      <c r="AH110" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>503</v>
-      </c>
-      <c r="B111" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE111" t="s">
-        <v>504</v>
-      </c>
-      <c r="AF111" t="s">
-        <v>505</v>
-      </c>
-      <c r="AG111" t="s">
-        <v>506</v>
-      </c>
-      <c r="AH111" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>508</v>
-      </c>
-      <c r="B112" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE112" t="s">
-        <v>509</v>
-      </c>
-      <c r="AF112" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG112" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH112" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>513</v>
-      </c>
-      <c r="B113" t="s">
-        <v>52</v>
-      </c>
-      <c r="C113" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH113" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>514</v>
-      </c>
-      <c r="B114" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE114" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF114" t="s">
-        <v>516</v>
-      </c>
-      <c r="AH114" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>518</v>
-      </c>
-      <c r="B115" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE115" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF115" t="s">
-        <v>520</v>
-      </c>
-      <c r="AG115" t="s">
-        <v>521</v>
-      </c>
-      <c r="AH115" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>523</v>
-      </c>
-      <c r="B116" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE116" t="s">
-        <v>524</v>
-      </c>
-      <c r="AF116" t="s">
-        <v>525</v>
-      </c>
-      <c r="AG116" t="s">
-        <v>526</v>
-      </c>
-      <c r="AH116" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>528</v>
-      </c>
-      <c r="B117" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE117" t="s">
-        <v>529</v>
-      </c>
-      <c r="AF117" t="s">
-        <v>530</v>
-      </c>
-      <c r="AG117" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH117" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>533</v>
-      </c>
-      <c r="B118" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE118" t="s">
-        <v>534</v>
-      </c>
-      <c r="AF118" t="s">
-        <v>535</v>
-      </c>
-      <c r="AG118" t="s">
-        <v>536</v>
-      </c>
-      <c r="AH118" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>538</v>
-      </c>
-      <c r="B119" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>539</v>
-      </c>
-      <c r="AF119" t="s">
-        <v>540</v>
-      </c>
-      <c r="AG119" t="s">
-        <v>541</v>
-      </c>
-      <c r="AH119" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>543</v>
-      </c>
-      <c r="B120" t="s">
-        <v>36</v>
-      </c>
-      <c r="C120" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE120" t="s">
-        <v>544</v>
-      </c>
-      <c r="AF120" t="s">
-        <v>545</v>
-      </c>
-      <c r="AG120" t="s">
-        <v>546</v>
-      </c>
-      <c r="AH120" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>548</v>
-      </c>
-      <c r="B121" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF121" t="s">
-        <v>549</v>
-      </c>
-      <c r="AG121" t="s">
-        <v>550</v>
-      </c>
-      <c r="AH121" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>552</v>
-      </c>
-      <c r="B122" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE122" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF122" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG122" t="s">
-        <v>555</v>
-      </c>
-      <c r="AH122" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>557</v>
-      </c>
-      <c r="B123" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE123" t="s">
-        <v>558</v>
-      </c>
-      <c r="AF123" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG123" t="s">
-        <v>560</v>
-      </c>
-      <c r="AH123" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>562</v>
-      </c>
-      <c r="B124" t="s">
-        <v>52</v>
-      </c>
-      <c r="C124" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>563</v>
-      </c>
-      <c r="B125" t="s">
-        <v>564</v>
-      </c>
-      <c r="C125" t="s">
-        <v>36</v>
-      </c>
-      <c r="G125" t="s">
-        <v>564</v>
-      </c>
-      <c r="AH125" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>566</v>
-      </c>
-      <c r="B126" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF126" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG126" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH126" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>570</v>
-      </c>
-      <c r="B127" t="s">
-        <v>571</v>
-      </c>
-      <c r="C127" t="s">
-        <v>36</v>
-      </c>
-      <c r="G127" t="s">
-        <v>37</v>
-      </c>
-      <c r="J127" t="s">
-        <v>84</v>
-      </c>
-      <c r="N127" t="s">
-        <v>572</v>
-      </c>
-      <c r="S127" t="s">
-        <v>573</v>
-      </c>
-      <c r="W127" t="s">
-        <v>571</v>
-      </c>
-      <c r="AG127" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>574</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="G2" t="s">
+        <v>576</v>
+      </c>
+      <c r="N2" t="s">
+        <v>577</v>
+      </c>
+      <c r="S2" t="s">
+        <v>578</v>
+      </c>
+      <c r="W2" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA2" t="s">
         <v>575</v>
       </c>
-      <c r="C128" t="s">
-        <v>36</v>
-      </c>
-      <c r="G128" t="s">
-        <v>576</v>
-      </c>
-      <c r="N128" t="s">
-        <v>577</v>
-      </c>
-      <c r="S128" t="s">
-        <v>578</v>
-      </c>
-      <c r="W128" t="s">
-        <v>579</v>
-      </c>
-      <c r="AA128" t="s">
-        <v>575</v>
-      </c>
-      <c r="AE128" t="s">
+      <c r="AE2" t="s">
         <v>580</v>
       </c>
-      <c r="AH128" t="s">
+      <c r="AH2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>582</v>
-      </c>
-      <c r="B129" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE129" t="s">
-        <v>583</v>
-      </c>
-      <c r="AF129" t="s">
-        <v>584</v>
-      </c>
-      <c r="AG129" t="s">
-        <v>585</v>
-      </c>
-      <c r="AH129" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>587</v>
-      </c>
-      <c r="B130" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF130" t="s">
-        <v>588</v>
-      </c>
-      <c r="AH130" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>590</v>
-      </c>
-      <c r="B131" t="s">
-        <v>52</v>
-      </c>
-      <c r="C131" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE131" t="s">
-        <v>591</v>
-      </c>
-      <c r="AH131" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>593</v>
-      </c>
-      <c r="B132" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH132" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>595</v>
-      </c>
-      <c r="B133" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE133" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF133" t="s">
-        <v>597</v>
-      </c>
-      <c r="AG133" t="s">
-        <v>598</v>
-      </c>
-      <c r="AH133" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>600</v>
-      </c>
-      <c r="B134" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE134" t="s">
-        <v>601</v>
-      </c>
-      <c r="AF134" t="s">
-        <v>602</v>
-      </c>
-      <c r="AG134" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH134" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>605</v>
-      </c>
-      <c r="B135" t="s">
-        <v>606</v>
-      </c>
-      <c r="C135" t="s">
-        <v>36</v>
-      </c>
-      <c r="G135" t="s">
-        <v>37</v>
-      </c>
-      <c r="J135" t="s">
-        <v>607</v>
-      </c>
-      <c r="N135" t="s">
-        <v>608</v>
-      </c>
-      <c r="S135" t="s">
-        <v>609</v>
-      </c>
-      <c r="W135" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>610</v>
-      </c>
-      <c r="B136" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE136" t="s">
-        <v>611</v>
-      </c>
-      <c r="AF136" t="s">
-        <v>612</v>
-      </c>
-      <c r="AG136" t="s">
-        <v>613</v>
-      </c>
-      <c r="AH136" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>615</v>
-      </c>
-      <c r="B137" t="s">
-        <v>52</v>
-      </c>
-      <c r="C137" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG137" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>623</v>
-      </c>
-      <c r="B138" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE138" t="s">
-        <v>624</v>
-      </c>
-      <c r="AF138" t="s">
-        <v>625</v>
-      </c>
-      <c r="AG138" t="s">
-        <v>626</v>
-      </c>
-      <c r="AH138" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>629</v>
-      </c>
-      <c r="B139" t="s">
-        <v>630</v>
-      </c>
-      <c r="C139" t="s">
-        <v>394</v>
-      </c>
-      <c r="G139" t="s">
-        <v>630</v>
-      </c>
-      <c r="AE139" t="s">
-        <v>631</v>
-      </c>
-      <c r="AH139" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>633</v>
-      </c>
-      <c r="B140" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF140" t="s">
-        <v>634</v>
-      </c>
-      <c r="AG140" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>636</v>
-      </c>
-      <c r="B141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE141" t="s">
-        <v>637</v>
-      </c>
-      <c r="AF141" t="s">
-        <v>638</v>
-      </c>
-      <c r="AG141" t="s">
-        <v>639</v>
-      </c>
-      <c r="AH141" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>641</v>
-      </c>
-      <c r="B142" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE142" t="s">
-        <v>642</v>
-      </c>
-      <c r="AF142" t="s">
-        <v>643</v>
-      </c>
-      <c r="AG142" t="s">
-        <v>644</v>
-      </c>
-      <c r="AH142" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>646</v>
-      </c>
-      <c r="B143" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF143" t="s">
-        <v>647</v>
-      </c>
-      <c r="AG143" t="s">
-        <v>648</v>
-      </c>
-      <c r="AH143" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>650</v>
-      </c>
-      <c r="B144" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE144" t="s">
-        <v>651</v>
-      </c>
-      <c r="AF144" t="s">
-        <v>652</v>
-      </c>
-      <c r="AG144" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH144" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>655</v>
-      </c>
-      <c r="B145" t="s">
-        <v>656</v>
-      </c>
-      <c r="C145" t="s">
-        <v>657</v>
-      </c>
-      <c r="N145" t="s">
-        <v>658</v>
-      </c>
-      <c r="S145" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>659</v>
-      </c>
-      <c r="B146" t="s">
-        <v>52</v>
-      </c>
-      <c r="C146" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF146" t="s">
-        <v>660</v>
-      </c>
-      <c r="AG146" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH146" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>662</v>
-      </c>
-      <c r="B147" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE147" t="s">
-        <v>663</v>
-      </c>
-      <c r="AF147" t="s">
-        <v>664</v>
-      </c>
-      <c r="AG147" t="s">
-        <v>665</v>
-      </c>
-      <c r="AH147" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>667</v>
-      </c>
-      <c r="B148" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE148" t="s">
-        <v>668</v>
-      </c>
-      <c r="AF148" t="s">
-        <v>669</v>
-      </c>
-      <c r="AG148" t="s">
-        <v>670</v>
-      </c>
-      <c r="AH148" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>672</v>
-      </c>
-      <c r="B149" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>673</v>
-      </c>
-      <c r="B150" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE150" t="s">
-        <v>674</v>
-      </c>
-      <c r="AF150" t="s">
-        <v>675</v>
-      </c>
-      <c r="AG150" t="s">
-        <v>676</v>
-      </c>
-      <c r="AH150" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>678</v>
-      </c>
-      <c r="B151" t="s">
-        <v>39</v>
-      </c>
-      <c r="C151" t="s">
-        <v>36</v>
-      </c>
-      <c r="G151" t="s">
-        <v>37</v>
-      </c>
-      <c r="H151" t="s">
-        <v>38</v>
-      </c>
-      <c r="J151" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH151" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>680</v>
-      </c>
-      <c r="B152" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG152" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>681</v>
-      </c>
-      <c r="B153" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE153" t="s">
-        <v>682</v>
-      </c>
-      <c r="AF153" t="s">
-        <v>683</v>
-      </c>
-      <c r="AG153" t="s">
-        <v>684</v>
-      </c>
-      <c r="AH153" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>686</v>
-      </c>
-      <c r="B154" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE154" t="s">
-        <v>687</v>
-      </c>
-      <c r="AF154" t="s">
-        <v>688</v>
-      </c>
-      <c r="AG154" t="s">
-        <v>689</v>
-      </c>
-      <c r="AH154" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>701</v>
-      </c>
-      <c r="B155" t="s">
-        <v>36</v>
-      </c>
-      <c r="C155" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG155" t="s">
-        <v>702</v>
-      </c>
-      <c r="AH155" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>704</v>
-      </c>
-      <c r="B156" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE156" t="s">
-        <v>705</v>
-      </c>
-      <c r="AF156" t="s">
-        <v>706</v>
-      </c>
-      <c r="AG156" t="s">
-        <v>707</v>
-      </c>
-      <c r="AH156" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>709</v>
-      </c>
-      <c r="B157" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE157" t="s">
-        <v>710</v>
-      </c>
-      <c r="AF157" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG157" t="s">
-        <v>712</v>
-      </c>
-      <c r="AH157" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>714</v>
-      </c>
-      <c r="B158" t="s">
-        <v>84</v>
-      </c>
-      <c r="C158" t="s">
-        <v>36</v>
-      </c>
-      <c r="G158" t="s">
-        <v>37</v>
-      </c>
-      <c r="J158" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH158" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>715</v>
-      </c>
-      <c r="B159" t="s">
-        <v>52</v>
-      </c>
-      <c r="C159" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF159" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG159" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>716</v>
-      </c>
-      <c r="B160" t="s">
-        <v>37</v>
-      </c>
-      <c r="C160" t="s">
-        <v>36</v>
-      </c>
-      <c r="G160" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF160" t="s">
-        <v>717</v>
-      </c>
-      <c r="AG160" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>718</v>
-      </c>
-      <c r="B161" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG161" t="s">
-        <v>719</v>
-      </c>
-      <c r="AH161" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>721</v>
-      </c>
-      <c r="B162" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE162" t="s">
-        <v>722</v>
-      </c>
-      <c r="AF162" t="s">
-        <v>723</v>
-      </c>
-      <c r="AH162" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>725</v>
-      </c>
-      <c r="B163" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF163" t="s">
-        <v>726</v>
-      </c>
-      <c r="AG163" t="s">
-        <v>727</v>
-      </c>
-      <c r="AH163" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>729</v>
-      </c>
-      <c r="B164" t="s">
-        <v>730</v>
-      </c>
-      <c r="C164" t="s">
-        <v>36</v>
-      </c>
-      <c r="G164" t="s">
-        <v>37</v>
-      </c>
-      <c r="J164" t="s">
-        <v>84</v>
-      </c>
-      <c r="W164" t="s">
-        <v>731</v>
-      </c>
-      <c r="AA164" t="s">
-        <v>730</v>
-      </c>
-      <c r="AF164" t="s">
-        <v>732</v>
-      </c>
-      <c r="AG164" t="s">
-        <v>621</v>
-      </c>
-      <c r="AH164" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>746</v>
-      </c>
-      <c r="B165" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF165" t="s">
-        <v>747</v>
-      </c>
-      <c r="AG165" t="s">
-        <v>748</v>
-      </c>
-      <c r="AH165" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>750</v>
-      </c>
-      <c r="B166" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE166" t="s">
-        <v>751</v>
-      </c>
-      <c r="AF166" t="s">
-        <v>752</v>
-      </c>
-      <c r="AG166" t="s">
-        <v>753</v>
-      </c>
-      <c r="AH166" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>755</v>
-      </c>
-      <c r="B167" t="s">
-        <v>756</v>
-      </c>
-      <c r="C167" t="s">
-        <v>36</v>
-      </c>
-      <c r="G167" t="s">
-        <v>347</v>
-      </c>
-      <c r="J167" t="s">
-        <v>757</v>
-      </c>
-      <c r="N167" t="s">
-        <v>758</v>
-      </c>
-      <c r="S167" t="s">
-        <v>759</v>
-      </c>
-      <c r="W167" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA167" t="s">
-        <v>756</v>
-      </c>
-      <c r="AG167" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH167" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>762</v>
-      </c>
-      <c r="B168" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE168" t="s">
-        <v>763</v>
-      </c>
-      <c r="AG168" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH168" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>765</v>
-      </c>
-      <c r="B169" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE169" t="s">
-        <v>766</v>
-      </c>
-      <c r="AF169" t="s">
-        <v>767</v>
-      </c>
-      <c r="AG169" t="s">
-        <v>768</v>
-      </c>
-      <c r="AH169" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>770</v>
-      </c>
-      <c r="B170" t="s">
-        <v>771</v>
-      </c>
-      <c r="C170" t="s">
-        <v>36</v>
-      </c>
-      <c r="G170" t="s">
-        <v>37</v>
-      </c>
-      <c r="H170" t="s">
-        <v>38</v>
-      </c>
-      <c r="J170" t="s">
-        <v>39</v>
-      </c>
-      <c r="N170" t="s">
-        <v>40</v>
-      </c>
-      <c r="O170" t="s">
-        <v>772</v>
-      </c>
-      <c r="S170" t="s">
-        <v>773</v>
-      </c>
-      <c r="W170" t="s">
-        <v>774</v>
-      </c>
-      <c r="AA170" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>775</v>
-      </c>
-      <c r="B171" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE171" t="s">
-        <v>776</v>
-      </c>
-      <c r="AF171" t="s">
-        <v>777</v>
-      </c>
-      <c r="AG171" t="s">
-        <v>778</v>
-      </c>
-      <c r="AH171" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>780</v>
-      </c>
-      <c r="B172" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE172" t="s">
-        <v>781</v>
-      </c>
-      <c r="AF172" t="s">
-        <v>782</v>
-      </c>
-      <c r="AG172" t="s">
-        <v>783</v>
-      </c>
-      <c r="AH172" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>798</v>
-      </c>
-      <c r="B173" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE173" t="s">
-        <v>799</v>
-      </c>
-      <c r="AF173" t="s">
-        <v>800</v>
-      </c>
-      <c r="AG173" t="s">
-        <v>801</v>
-      </c>
-      <c r="AH173" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>803</v>
-      </c>
-      <c r="B174" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE174" t="s">
-        <v>804</v>
-      </c>
-      <c r="AF174" t="s">
-        <v>805</v>
-      </c>
-      <c r="AG174" t="s">
-        <v>806</v>
-      </c>
-      <c r="AH174" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>808</v>
-      </c>
-      <c r="B175" t="s">
-        <v>36</v>
-      </c>
-      <c r="C175" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE175" t="s">
-        <v>809</v>
-      </c>
-      <c r="AF175" t="s">
-        <v>810</v>
-      </c>
-      <c r="AG175" t="s">
-        <v>811</v>
-      </c>
-      <c r="AH175" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>813</v>
-      </c>
-      <c r="B176" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE176" t="s">
-        <v>814</v>
-      </c>
-      <c r="AF176" t="s">
-        <v>815</v>
-      </c>
-      <c r="AG176" t="s">
-        <v>816</v>
-      </c>
-      <c r="AH176" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>818</v>
-      </c>
-      <c r="B177" t="s">
-        <v>36</v>
-      </c>
-      <c r="C177" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE177" t="s">
-        <v>819</v>
-      </c>
-      <c r="AF177" t="s">
-        <v>820</v>
-      </c>
-      <c r="AG177" t="s">
-        <v>821</v>
-      </c>
-      <c r="AH177" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>823</v>
-      </c>
-      <c r="B178" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF178" t="s">
-        <v>824</v>
-      </c>
-      <c r="AG178" t="s">
-        <v>825</v>
-      </c>
-      <c r="AH178" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>827</v>
-      </c>
-      <c r="B179" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF179" t="s">
-        <v>828</v>
-      </c>
-      <c r="AH179" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>830</v>
-      </c>
-      <c r="B180" t="s">
-        <v>831</v>
-      </c>
-      <c r="C180" t="s">
-        <v>36</v>
-      </c>
-      <c r="G180" t="s">
-        <v>37</v>
-      </c>
-      <c r="J180" t="s">
-        <v>832</v>
-      </c>
-      <c r="N180" t="s">
-        <v>833</v>
-      </c>
-      <c r="W180" t="s">
-        <v>831</v>
-      </c>
-      <c r="AF180" t="s">
-        <v>834</v>
-      </c>
-      <c r="AH180" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>836</v>
-      </c>
-      <c r="B181" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH181" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>838</v>
-      </c>
-      <c r="B182" t="s">
-        <v>839</v>
-      </c>
-      <c r="C182" t="s">
-        <v>36</v>
-      </c>
-      <c r="G182" t="s">
-        <v>37</v>
-      </c>
-      <c r="J182" t="s">
-        <v>840</v>
-      </c>
-      <c r="N182" t="s">
-        <v>839</v>
-      </c>
-      <c r="AH182" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>850</v>
-      </c>
-      <c r="B183" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF183" t="s">
-        <v>851</v>
-      </c>
-      <c r="AH183" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>853</v>
-      </c>
-      <c r="B184" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE184" t="s">
-        <v>854</v>
-      </c>
-      <c r="AF184" t="s">
-        <v>855</v>
-      </c>
-      <c r="AG184" t="s">
-        <v>856</v>
-      </c>
-      <c r="AH184" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>858</v>
-      </c>
-      <c r="B185" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE185" t="s">
-        <v>859</v>
-      </c>
-      <c r="AF185" t="s">
-        <v>860</v>
-      </c>
-      <c r="AG185" t="s">
-        <v>861</v>
-      </c>
-      <c r="AH185" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>863</v>
-      </c>
-      <c r="B186" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE186" t="s">
-        <v>864</v>
-      </c>
-      <c r="AF186" t="s">
-        <v>865</v>
-      </c>
-      <c r="AG186" t="s">
-        <v>866</v>
-      </c>
-      <c r="AH186" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>868</v>
-      </c>
-      <c r="B187" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE187" t="s">
-        <v>869</v>
-      </c>
-      <c r="AF187" t="s">
-        <v>870</v>
-      </c>
-      <c r="AG187" t="s">
-        <v>871</v>
-      </c>
-      <c r="AH187" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>873</v>
-      </c>
-      <c r="B188" t="s">
-        <v>36</v>
-      </c>
-      <c r="C188" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE188" t="s">
-        <v>874</v>
-      </c>
-      <c r="AF188" t="s">
-        <v>875</v>
-      </c>
-      <c r="AG188" t="s">
-        <v>876</v>
-      </c>
-      <c r="AH188" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>878</v>
-      </c>
-      <c r="B189" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF189" t="s">
-        <v>879</v>
-      </c>
-      <c r="AG189" t="s">
-        <v>880</v>
-      </c>
-      <c r="AH189" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>882</v>
-      </c>
-      <c r="B190" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE190" t="s">
-        <v>883</v>
-      </c>
-      <c r="AF190" t="s">
-        <v>884</v>
-      </c>
-      <c r="AG190" t="s">
-        <v>885</v>
-      </c>
-      <c r="AH190" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>894</v>
-      </c>
-      <c r="B191" t="s">
-        <v>895</v>
-      </c>
-      <c r="C191" t="s">
-        <v>36</v>
-      </c>
-      <c r="G191" t="s">
-        <v>37</v>
-      </c>
-      <c r="J191" t="s">
-        <v>607</v>
-      </c>
-      <c r="N191" t="s">
-        <v>896</v>
-      </c>
-      <c r="S191" t="s">
-        <v>897</v>
-      </c>
-      <c r="W191" t="s">
-        <v>895</v>
-      </c>
-      <c r="AH191" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>899</v>
-      </c>
-      <c r="B192" t="s">
-        <v>52</v>
-      </c>
-      <c r="C192" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF192" t="s">
-        <v>900</v>
-      </c>
-      <c r="AG192" t="s">
-        <v>901</v>
-      </c>
-      <c r="AH192" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>903</v>
-      </c>
-      <c r="B193" t="s">
-        <v>904</v>
-      </c>
-      <c r="C193" t="s">
-        <v>52</v>
-      </c>
-      <c r="G193" t="s">
-        <v>905</v>
-      </c>
-      <c r="J193" t="s">
-        <v>906</v>
-      </c>
-      <c r="N193" t="s">
-        <v>907</v>
-      </c>
-      <c r="S193" t="s">
-        <v>908</v>
-      </c>
-      <c r="W193" t="s">
-        <v>909</v>
-      </c>
-      <c r="AA193" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>910</v>
-      </c>
-      <c r="B194" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE194" t="s">
-        <v>911</v>
-      </c>
-      <c r="AF194" t="s">
-        <v>912</v>
-      </c>
-      <c r="AG194" t="s">
-        <v>913</v>
-      </c>
-      <c r="AH194" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>915</v>
-      </c>
-      <c r="B195" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF195" t="s">
-        <v>916</v>
-      </c>
-      <c r="AG195" t="s">
-        <v>917</v>
-      </c>
-      <c r="AH195" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>919</v>
-      </c>
-      <c r="B196" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE196" t="s">
-        <v>920</v>
-      </c>
-      <c r="AF196" t="s">
-        <v>921</v>
-      </c>
-      <c r="AG196" t="s">
-        <v>922</v>
-      </c>
-      <c r="AH196" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>924</v>
-      </c>
-      <c r="B197" t="s">
-        <v>35</v>
-      </c>
-      <c r="C197" t="s">
-        <v>36</v>
-      </c>
-      <c r="G197" t="s">
-        <v>37</v>
-      </c>
-      <c r="H197" t="s">
-        <v>38</v>
-      </c>
-      <c r="J197" t="s">
-        <v>39</v>
-      </c>
-      <c r="N197" t="s">
-        <v>40</v>
-      </c>
-      <c r="O197" t="s">
-        <v>41</v>
-      </c>
-      <c r="S197" t="s">
-        <v>42</v>
-      </c>
-      <c r="W197" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA197" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF197" t="s">
-        <v>925</v>
-      </c>
-      <c r="AG197" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>927</v>
-      </c>
-      <c r="B198" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF198" t="s">
-        <v>928</v>
-      </c>
-      <c r="AH198" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>930</v>
-      </c>
-      <c r="B199" t="s">
-        <v>212</v>
-      </c>
-      <c r="C199" t="s">
-        <v>36</v>
-      </c>
-      <c r="G199" t="s">
-        <v>37</v>
-      </c>
-      <c r="J199" t="s">
-        <v>84</v>
-      </c>
-      <c r="N199" t="s">
-        <v>85</v>
-      </c>
-      <c r="S199" t="s">
-        <v>86</v>
-      </c>
-      <c r="W199" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH199" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>932</v>
-      </c>
-      <c r="B200" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE200" t="s">
-        <v>933</v>
-      </c>
-      <c r="AF200" t="s">
-        <v>934</v>
-      </c>
-      <c r="AG200" t="s">
-        <v>935</v>
-      </c>
-      <c r="AH200" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>937</v>
-      </c>
-      <c r="B201" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE201" t="s">
-        <v>938</v>
-      </c>
-      <c r="AF201" t="s">
-        <v>939</v>
-      </c>
-      <c r="AG201" t="s">
-        <v>940</v>
-      </c>
-      <c r="AH201" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>942</v>
-      </c>
-      <c r="B202" t="s">
-        <v>943</v>
-      </c>
-      <c r="C202" t="s">
-        <v>36</v>
-      </c>
-      <c r="G202" t="s">
-        <v>226</v>
-      </c>
-      <c r="J202" t="s">
-        <v>226</v>
-      </c>
-      <c r="N202" t="s">
-        <v>944</v>
-      </c>
-      <c r="S202" t="s">
-        <v>945</v>
-      </c>
-      <c r="W202" t="s">
-        <v>946</v>
-      </c>
-      <c r="AA202" t="s">
-        <v>943</v>
-      </c>
-      <c r="AG202" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>947</v>
-      </c>
-      <c r="B203" t="s">
-        <v>948</v>
-      </c>
-      <c r="C203" t="s">
-        <v>36</v>
-      </c>
-      <c r="G203" t="s">
-        <v>37</v>
-      </c>
-      <c r="J203" t="s">
-        <v>607</v>
-      </c>
-      <c r="N203" t="s">
-        <v>949</v>
-      </c>
-      <c r="S203" t="s">
-        <v>950</v>
-      </c>
-      <c r="AA203" t="s">
-        <v>948</v>
-      </c>
-      <c r="AG203" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH203" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>952</v>
-      </c>
-      <c r="B204" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE204" t="s">
-        <v>953</v>
-      </c>
-      <c r="AF204" t="s">
-        <v>954</v>
-      </c>
-      <c r="AG204" t="s">
-        <v>955</v>
-      </c>
-      <c r="AH204" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>957</v>
-      </c>
-      <c r="B205" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE205" t="s">
-        <v>958</v>
-      </c>
-      <c r="AF205" t="s">
-        <v>959</v>
-      </c>
-      <c r="AG205" t="s">
-        <v>960</v>
-      </c>
-      <c r="AH205" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>962</v>
-      </c>
-      <c r="B206" t="s">
-        <v>963</v>
-      </c>
-      <c r="C206" t="s">
-        <v>36</v>
-      </c>
-      <c r="G206" t="s">
-        <v>37</v>
-      </c>
-      <c r="J206" t="s">
-        <v>607</v>
-      </c>
-      <c r="N206" t="s">
-        <v>964</v>
-      </c>
-      <c r="AA206" t="s">
-        <v>963</v>
-      </c>
-      <c r="AH206" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>966</v>
-      </c>
-      <c r="B207" t="s">
-        <v>52</v>
-      </c>
-      <c r="C207" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>967</v>
-      </c>
-      <c r="B208" t="s">
-        <v>968</v>
-      </c>
-      <c r="C208" t="s">
-        <v>36</v>
-      </c>
-      <c r="G208" t="s">
-        <v>968</v>
-      </c>
-      <c r="AE208" t="s">
-        <v>969</v>
-      </c>
-      <c r="AF208" t="s">
-        <v>970</v>
-      </c>
-      <c r="AH208" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>972</v>
-      </c>
-      <c r="B209" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE209" t="s">
-        <v>973</v>
-      </c>
-      <c r="AF209" t="s">
-        <v>974</v>
-      </c>
-      <c r="AG209" t="s">
-        <v>975</v>
-      </c>
-      <c r="AH209" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>977</v>
-      </c>
-      <c r="B210" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF210" t="s">
-        <v>978</v>
-      </c>
-      <c r="AG210" t="s">
-        <v>979</v>
-      </c>
-      <c r="AH210" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>981</v>
-      </c>
-      <c r="B211" t="s">
-        <v>982</v>
-      </c>
-      <c r="C211" t="s">
-        <v>36</v>
-      </c>
-      <c r="G211" t="s">
-        <v>968</v>
-      </c>
-      <c r="J211" t="s">
-        <v>983</v>
-      </c>
-      <c r="N211" t="s">
-        <v>984</v>
-      </c>
-      <c r="S211" t="s">
-        <v>985</v>
-      </c>
-      <c r="W211" t="s">
-        <v>986</v>
-      </c>
-      <c r="AA211" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF211" t="s">
-        <v>987</v>
-      </c>
-      <c r="AH211" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>988</v>
-      </c>
-      <c r="B212" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE212" t="s">
-        <v>989</v>
-      </c>
-      <c r="AF212" t="s">
-        <v>990</v>
-      </c>
-      <c r="AG212" t="s">
-        <v>991</v>
-      </c>
-      <c r="AH212" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>993</v>
-      </c>
-      <c r="B213" t="s">
-        <v>994</v>
-      </c>
-      <c r="C213" t="s">
-        <v>36</v>
-      </c>
-      <c r="G213" t="s">
-        <v>995</v>
-      </c>
-      <c r="J213" t="s">
-        <v>996</v>
-      </c>
-      <c r="N213" t="s">
-        <v>997</v>
-      </c>
-      <c r="AA213" t="s">
-        <v>994</v>
-      </c>
-      <c r="AH213" t="s">
-        <v>837</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH213">
-    <sortCondition ref="D2:D213"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>